--- a/CASUAL/LA ONT/ESPINOSA, RUBY ANN.xlsx
+++ b/CASUAL/LA ONT/ESPINOSA, RUBY ANN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>UT(0-3-55)</t>
+  </si>
+  <si>
+    <t>UT(0-3-0)</t>
   </si>
 </sst>
 </file>
@@ -664,14 +667,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -681,9 +687,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,7 +1217,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1260,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1324,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1384,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1450,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1513,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1611,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1670,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1735,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1778,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1853,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2039,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2105,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2163,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2229,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2285,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2360,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2403,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2469,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2525,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +3003,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,14 +3033,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3048,14 +3051,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3068,16 +3071,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3103,18 +3106,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3161,7 +3164,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.260000000000005</v>
+        <v>62.885000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4358,11 +4361,15 @@
       <c r="A68" s="40">
         <v>44682</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>0.375</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -5592,17 +5599,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5670,14 +5677,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5688,14 +5695,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5708,16 +5715,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5743,18 +5750,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7275,12 +7282,10 @@
       <c r="E3" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="11">
-        <v>55</v>
-      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.49</v>
+        <v>0.375</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/ESPINOSA, RUBY ANN.xlsx
+++ b/CASUAL/LA ONT/ESPINOSA, RUBY ANN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>UT(0-3-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-1-0)</t>
   </si>
 </sst>
 </file>
@@ -667,17 +676,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -687,6 +693,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,7 +1226,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1269,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1333,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1393,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1459,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1522,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1620,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1679,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1744,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1787,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1862,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2048,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2114,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2172,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2238,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2294,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2369,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2412,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2478,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2534,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2630,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K138" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2998,7 +3007,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
@@ -3033,14 +3042,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3051,14 +3060,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3071,16 +3080,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3106,18 +3115,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3164,7 +3173,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>62.885000000000005</v>
+        <v>62.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4449,11 +4458,15 @@
       <c r="A72" s="40">
         <v>44805</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4489,11 +4502,15 @@
       <c r="A74" s="40">
         <v>44866</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4530,12 +4547,14 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="20"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -4548,19 +4567,17 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44927</v>
+      <c r="A77" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4569,7 +4586,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4589,11 +4606,9 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>75</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
@@ -4604,21 +4619,17 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="39">
-        <v>10</v>
-      </c>
+      <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -4631,59 +4642,65 @@
         <v>1.25</v>
       </c>
       <c r="H80" s="39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45017</v>
+      </c>
       <c r="B81" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H82" s="39"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="39">
+        <v>32</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4703,7 +4720,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4723,7 +4740,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4743,7 +4760,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4763,7 +4780,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -4783,7 +4800,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -4803,16 +4820,18 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -4820,8 +4839,8 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
-        <v>79</v>
+      <c r="A90" s="40">
+        <v>45261</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4838,8 +4857,8 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45292</v>
+      <c r="A91" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4857,7 +4876,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4875,7 +4894,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4893,7 +4912,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4910,7 +4929,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45383</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5582,34 +5603,50 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5677,14 +5714,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5695,14 +5732,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5715,16 +5752,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5750,18 +5787,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7280,12 +7317,12 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
